--- a/SQL Setup/Ignore Text Insert helper.xlsx
+++ b/SQL Setup/Ignore Text Insert helper.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimRoberts\OneDrive - Pebble IT Solutions Pty Limited\SQL\Scripts\Toolbox\Checks - weekly\SQL Setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimRoberts\OneDrive - Pebble IT Solutions Pty Limited\Github\SQLHealthChecks\SQL Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{45E88F73-A278-4AAC-93FB-E8800E6C904E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F30B32BA-CC29-4396-81E9-9DCDD560EC99}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{45E88F73-A278-4AAC-93FB-E8800E6C904E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C96DEB65-8962-4D9C-8E80-05D0149D563E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24765" xr2:uid="{8AB13609-D131-4ECD-BEE1-7815992011B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AB13609-D131-4ECD-BEE1-7815992011B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,12 +42,6 @@
     <t>BACKUP DATABASE WITH DIFFERENTIAL successfully%</t>
   </si>
   <si>
-    <t>Log was backed up%This is an informational message only. No user action is required%</t>
-  </si>
-  <si>
-    <t>Database backed up%This is an informational message only. No user action is required%</t>
-  </si>
-  <si>
     <t>DBCC CHECKTABLE%found 0 errors and repaired 0 errors%</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>The error log has been reinitialized%</t>
+  </si>
+  <si>
+    <t>Log was backed up%</t>
+  </si>
+  <si>
+    <t>Database backed up%</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,17 +494,17 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,11 +548,11 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>(@ServerName, 1, 'Log was backed up%This is an informational message only. No user action is required%'),</v>
+        <v>(@ServerName, 1, 'Log was backed up%'),</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,11 +560,11 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>(@ServerName, 1, 'Database backed up%This is an informational message only. No user action is required%'),</v>
+        <v>(@ServerName, 1, 'Database backed up%'),</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -872,6 +872,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002404B61D8C79D242972ECA753B173F77" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="451aa2fc6e11b41352f9eb6bd4932bb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af1e5ebb-1497-4a1a-9495-90632a47c590" xmlns:ns3="d8045015-17cb-4c5d-8b76-bc6bd36f31da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cb5ea3d596101c60752d5f66fcf1aa8" ns2:_="" ns3:_="">
     <xsd:import namespace="af1e5ebb-1497-4a1a-9495-90632a47c590"/>
@@ -1068,15 +1077,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27076185-3E76-477B-932B-DC9024CFEB39}">
   <ds:schemaRefs>
@@ -1094,13 +1094,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15488559-A4BE-4BBA-94F9-68A427D2EE8D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDBC24B2-BCAF-4195-BFD3-CA542BB89EB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15488559-A4BE-4BBA-94F9-68A427D2EE8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="af1e5ebb-1497-4a1a-9495-90632a47c590"/>
+    <ds:schemaRef ds:uri="d8045015-17cb-4c5d-8b76-bc6bd36f31da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>